--- a/data/trans_dic/P54_A_4_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_4_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por sufrir desempleo o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por sufrir desempleo o ya le ha ocurrido (tasa de respuesta: 96,43%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>41,84%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3,35%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,33%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,27%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,52</t>
+          <t>22,31; 67,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>0,0; 11,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,34</t>
+          <t>22,98; 52,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,76</t>
+          <t>0,0; 11,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,76</t>
+          <t>1,35; 18,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,22</t>
+          <t>26,14; 56,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>0,86; 8,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>0,68; 9,7</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,32%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,49%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>10,7; 23,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>2,43; 26,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>0,0; 3,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>15,55; 28,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>2,13; 8,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>0,0; 6,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>14,96; 23,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>3,28; 15,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,38; 3,89</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,49%</t>
         </is>
       </c>
     </row>
@@ -905,54 +906,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,05</t>
+          <t>5,41; 18,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,05</t>
+          <t>0,0; 4,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>0,0; 6,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>7,66; 18,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>0,0; 2,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>0,0; 4,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>7,82; 15,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0,23; 2,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0,46; 4,16</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1016,172 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>17,03%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,32%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,21%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>18,95%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2,56%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2,19%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>18,04%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,84%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>12,63; 24,69</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,89; 14,51</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,39; 3,45</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>15,15; 23,46</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1,28; 4,43</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,86; 4,33</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15,36; 22,27</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2,07; 8,26</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,86; 3,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -1072,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por sufrir desempleo o ya le ha ocurrido (tasa de respuesta: 96,43%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>37744</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4324</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>32646</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6878</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>70390</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>8971</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>6878</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>20126; 60974</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14391</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>20651; 47362</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15849</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1530; 21067</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>47062; 102056</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2336; 23398</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1430; 20426</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>51230</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>38166</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3983</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>73429</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>19749</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>6846</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>124658</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>57916</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>10828</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>34661; 75568</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>10298; 112868</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 12196</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>53533; 97407</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>9593; 39304</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 23526</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>99958; 158109</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>28696; 139296</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2774; 28302</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>28100</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4405</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4942</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>39579</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1755</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4184</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>67679</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>6160</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>9125</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>14794; 49409</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14129</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17112</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>25616; 60964</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9605</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14759</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>47539; 93852</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1766; 16069</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2815; 25535</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>117073</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>46895</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>8924</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>145654</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>26152</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>17907</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>262727</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>73046</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>26831</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>86852; 169743</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>16686; 127875</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2852; 25363</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>116505; 180380</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>13052; 45208</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>7039; 35358</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>223774; 324304</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>39315; 156996</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>13344; 47746</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>